--- a/expense.xlsx
+++ b/expense.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,7 +1583,7 @@
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -1760,6 +1760,150 @@
       </c>
       <c r="D76" t="n">
         <v>1420</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/expense.xlsx
+++ b/expense.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -1904,6 +1904,78 @@
       </c>
       <c r="D84" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/expense.xlsx
+++ b/expense.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,8 +460,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44852</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,8 +480,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44852</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,8 +500,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44852</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,8 +520,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44852</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -535,8 +540,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44852</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -553,8 +560,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44852</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -571,8 +580,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44852</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -589,8 +600,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44852</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -607,8 +620,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44852</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -625,8 +640,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44852</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -643,8 +660,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44852</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -661,8 +680,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44852</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,8 +700,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44852</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -697,8 +720,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44852</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -715,8 +740,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44852</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -733,8 +760,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44852</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -751,8 +780,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44852</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -769,8 +800,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44852</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -787,8 +820,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44852</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -805,8 +840,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44852</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -823,8 +860,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44852</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -841,8 +880,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44852</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -859,8 +900,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44852</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -877,8 +920,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44852</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -895,8 +940,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44852</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -913,8 +960,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44852</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -931,8 +980,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44852</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -949,8 +1000,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44852</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -967,8 +1020,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44852</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -985,8 +1040,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44852</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1003,8 +1060,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44852</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1021,8 +1080,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44852</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1039,8 +1100,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44852</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1057,8 +1120,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44852</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1075,8 +1140,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44852</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1093,8 +1160,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44852</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1111,8 +1180,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44852</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1129,8 +1200,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44852</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1147,8 +1220,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44852</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1165,8 +1240,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44852</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1177,8 +1254,10 @@
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44852</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1193,8 +1272,10 @@
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44852</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1209,8 +1290,10 @@
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44852</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1227,8 +1310,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44852</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1245,8 +1330,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44852</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1263,8 +1350,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44852</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1281,8 +1370,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44852</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1299,8 +1390,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44852</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1317,8 +1410,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44852</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1335,8 +1430,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44852</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1353,8 +1450,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44852</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1371,8 +1470,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44852</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1389,8 +1490,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44852</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1407,8 +1510,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44852</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1425,8 +1530,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44852</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1443,8 +1550,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44852</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1461,8 +1570,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44852</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1479,8 +1590,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44852</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1497,8 +1610,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44852</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1515,8 +1630,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44852</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1533,8 +1650,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44852</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1551,40 +1670,50 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44852</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44852</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44852</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44852</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44852</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1601,8 +1730,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44852</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1619,8 +1750,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44852</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1637,8 +1770,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44852</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1655,8 +1790,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44852</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1673,8 +1810,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44852</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1691,8 +1830,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44852</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1709,8 +1850,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44852</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1727,8 +1870,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44852</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1745,8 +1890,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44852</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1763,8 +1910,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44852</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1781,8 +1930,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44852</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1799,8 +1950,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44852</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1817,8 +1970,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44852</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1835,8 +1990,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44852</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1853,8 +2010,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44852</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1871,8 +2030,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44852</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1889,8 +2050,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44852</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1907,8 +2070,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
-        <v>44852</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1925,8 +2090,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
-        <v>44852</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1943,8 +2110,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
-        <v>44852</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1961,8 +2130,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
-        <v>44852</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1976,6 +2147,158 @@
       </c>
       <c r="D88" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>23321</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>23321</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>23321</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>23321</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>12441</v>
       </c>
     </row>
   </sheetData>
